--- a/cleaned files/FeeAssistance.xlsx
+++ b/cleaned files/FeeAssistance.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yli355\Documents\APE files\cleaned files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80700F43-F88F-4CC5-A3AA-AF66251143C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26340" yWindow="5025" windowWidth="24480" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Applicants, Acceptees, and Matriculants</t>
   </si>
@@ -53,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +123,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,199 +420,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>6940</v>
+      </c>
+      <c r="D2">
+        <v>12.6</v>
+      </c>
+      <c r="E2">
+        <v>55189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>7129</v>
+      </c>
+      <c r="D3">
+        <v>13.6</v>
+      </c>
+      <c r="E3">
+        <v>52577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7474</v>
+      </c>
+      <c r="D4">
+        <v>14.4</v>
+      </c>
+      <c r="E4">
+        <v>51946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>6940</v>
-      </c>
-      <c r="E2">
+      <c r="C5">
+        <v>2752</v>
+      </c>
+      <c r="D5">
+        <v>11.6</v>
+      </c>
+      <c r="E5">
+        <v>23810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3010</v>
+      </c>
+      <c r="D6">
+        <v>12.5</v>
+      </c>
+      <c r="E6">
+        <v>24014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3029</v>
+      </c>
+      <c r="D7">
+        <v>12.5</v>
+      </c>
+      <c r="E7">
+        <v>24172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2639</v>
+      </c>
+      <c r="D8">
+        <v>11.6</v>
+      </c>
+      <c r="E8">
+        <v>22710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2896</v>
+      </c>
+      <c r="D9">
         <v>12.6</v>
       </c>
-      <c r="F2">
-        <v>55189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>7129</v>
-      </c>
-      <c r="E3">
-        <v>13.6</v>
-      </c>
-      <c r="F3">
-        <v>52577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E9">
+        <v>22980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>7474</v>
-      </c>
-      <c r="E4">
-        <v>14.4</v>
-      </c>
-      <c r="F4">
-        <v>51946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2752</v>
-      </c>
-      <c r="E6">
-        <v>11.6</v>
-      </c>
-      <c r="F6">
-        <v>23810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>3010</v>
-      </c>
-      <c r="E7">
+      <c r="C10">
+        <v>2892</v>
+      </c>
+      <c r="D10">
         <v>12.5</v>
       </c>
-      <c r="F7">
-        <v>24014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>3029</v>
-      </c>
-      <c r="E8">
-        <v>12.5</v>
-      </c>
-      <c r="F8">
-        <v>24172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2639</v>
-      </c>
       <c r="E10">
-        <v>11.6</v>
-      </c>
-      <c r="F10">
-        <v>22710</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>2896</v>
-      </c>
-      <c r="E11">
-        <v>12.6</v>
-      </c>
-      <c r="F11">
-        <v>22980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>2892</v>
-      </c>
-      <c r="E12">
-        <v>12.5</v>
-      </c>
-      <c r="F12">
         <v>23156</v>
       </c>
     </row>
